--- a/Kings XI Punjab/Ravi Bishnoi .xlsx
+++ b/Kings XI Punjab/Ravi Bishnoi .xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,21 @@
       <c r="F1" t="str">
         <v>sixes</v>
       </c>
+      <c r="G1" t="str">
+        <v>sr</v>
+      </c>
+      <c r="H1" t="str">
+        <v>opponentTeamName</v>
+      </c>
+      <c r="I1" t="str">
+        <v>venue</v>
+      </c>
+      <c r="J1" t="str">
+        <v>date</v>
+      </c>
+      <c r="K1" t="str">
+        <v>result</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -460,9 +475,834 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B5" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B6" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C6" t="str">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B7" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B8" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C9" t="str">
+        <v>6</v>
+      </c>
+      <c r="D9" t="str">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B11" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>5</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6</v>
+      </c>
+      <c r="D12" t="str">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>-</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1</v>
+      </c>
+      <c r="D14" t="str">
+        <v>5</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C15" t="str">
+        <v>6</v>
+      </c>
+      <c r="D15" t="str">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B16" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>-</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B17" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <v>5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B18" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C18" t="str">
+        <v>6</v>
+      </c>
+      <c r="D18" t="str">
+        <v>7</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B19" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B20" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C20" t="str">
+        <v>6</v>
+      </c>
+      <c r="D20" t="str">
+        <v>7</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B21" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>5</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B22" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <v>5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B23" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1</v>
+      </c>
+      <c r="D23" t="str">
+        <v>5</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B24" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C24" t="str">
+        <v>6</v>
+      </c>
+      <c r="D24" t="str">
+        <v>7</v>
+      </c>
+      <c r="E24" t="str">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B25" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B26" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B27" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <v>5</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B28" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C28" t="str">
+        <v>6</v>
+      </c>
+      <c r="D28" t="str">
+        <v>7</v>
+      </c>
+      <c r="E28" t="str">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B29" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>5</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>20.00</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B30" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C30" t="str">
+        <v>6</v>
+      </c>
+      <c r="D30" t="str">
+        <v>7</v>
+      </c>
+      <c r="E30" t="str">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B31" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B32" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C32" t="str">
+        <v>6</v>
+      </c>
+      <c r="D32" t="str">
+        <v>7</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Sunrisers Hyderabad INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Oct 8 2020</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B33" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>5</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Mumbai Indians INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Oct 1 2020</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B34" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C34" t="str">
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>-</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 127 runs from 20 overs)</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B35" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>5</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Mumbai Indians INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Oct 1 2020</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B36" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C36" t="str">
+        <v>6</v>
+      </c>
+      <c r="D36" t="str">
+        <v>7</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Sunrisers Hyderabad INNINGS (20 overs maximum)</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Oct 8 2020</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve">Ravi Bishnoi </v>
+      </c>
+      <c r="B37" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="C37" t="str">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>-</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Sunrisers Hyderabad INNINGS (target: 127 runs from 20 overs)</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K37"/>
   </ignoredErrors>
 </worksheet>
 </file>